--- a/xlsx/簡易英語維基百科_intext.xlsx
+++ b/xlsx/簡易英語維基百科_intext.xlsx
@@ -4165,7 +4165,7 @@
         <v>174</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
